--- a/docs/measures.xlsx
+++ b/docs/measures.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlevi\Dropbox\Sierra Leone Covid\6_automated_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maartenvoors/Dropbox/Sierra Leone Covid/6_automated_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0809554A-08AB-479E-910D-3E588AA72D93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15912" yWindow="1128" windowWidth="12216" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6000" yWindow="-20360" windowWidth="30820" windowHeight="17900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
   <si>
     <t>variable</t>
   </si>
@@ -62,117 +64,30 @@
     <t>Is casava available?</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of respondents reporting that cassava is available in markets </t>
-  </si>
-  <si>
     <t>social_distancing</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of respondents reporting that Bonga fish is available in markets </t>
-  </si>
-  <si>
     <t>Is Bonga fish available?</t>
   </si>
   <si>
-    <t>Price of rice cup</t>
-  </si>
-  <si>
-    <t>Price of casava tuber</t>
-  </si>
-  <si>
-    <t>Price of Bonga fish</t>
-  </si>
-  <si>
     <t>Is palm oil available?</t>
   </si>
   <si>
     <t>Is maggie available?</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of respondents reporting that palm oil is available in markets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of respondents reporting that maggie is available in markets </t>
-  </si>
-  <si>
-    <t>Price of palm oil pint</t>
-  </si>
-  <si>
-    <t>Price of Maggie cube</t>
-  </si>
-  <si>
-    <t>Share of respondents reporting that rice is available in markets</t>
-  </si>
-  <si>
     <t>Market open?</t>
   </si>
   <si>
     <t>Share of respondents reporting that local market is open</t>
   </si>
   <si>
-    <t>Market days</t>
-  </si>
-  <si>
-    <t>Average number of days market was open during past week</t>
-  </si>
-  <si>
-    <t>Average price paid for a cup of rice</t>
-  </si>
-  <si>
-    <t>Average price paid for palm oil pint</t>
-  </si>
-  <si>
-    <t>Average price paid for Bonga fish</t>
-  </si>
-  <si>
-    <t>Average price paid for a casava tuber</t>
-  </si>
-  <si>
-    <t>Average price paid for Maggie cube</t>
-  </si>
-  <si>
-    <t>Days in past week where household spent whole day without eating?</t>
-  </si>
-  <si>
-    <t>Days in past week where household ate fewer times per day than normal for this time of year</t>
-  </si>
-  <si>
-    <t>Days in past week where household reduced portions/quantities served per meal for girls under age 10</t>
-  </si>
-  <si>
-    <t>Days in past week where household reduced portions served per meal for boys under age 10</t>
-  </si>
-  <si>
-    <t>Days in past week where household reduced portions served per meal for adult females?</t>
-  </si>
-  <si>
-    <t>Days in past week where household reduced portions served per meal for adult males?</t>
-  </si>
-  <si>
-    <t>Days in past week where household asked for help from relatives or friends for food?</t>
-  </si>
-  <si>
-    <t>Days in past week where household ate “less preferred foods”</t>
-  </si>
-  <si>
     <t>Days ate less prefered food</t>
   </si>
   <si>
     <t>Days asked for food help</t>
   </si>
   <si>
-    <t>Days reduced adult male food</t>
-  </si>
-  <si>
-    <t>Days reduced adult female food</t>
-  </si>
-  <si>
-    <t>Days reduced adult boys food</t>
-  </si>
-  <si>
-    <t>Days reduced adult girls food</t>
-  </si>
-  <si>
     <t>Days ate fewer times</t>
   </si>
   <si>
@@ -197,36 +112,15 @@
     <t>Relative to last year, less likely to sell crops</t>
   </si>
   <si>
-    <t>Shake hands</t>
-  </si>
-  <si>
-    <t>Average nr of repsontents reporting they keep distance from others when at the market</t>
-  </si>
-  <si>
     <t>Keep distance in markets</t>
   </si>
   <si>
-    <t>Visiting friends</t>
-  </si>
-  <si>
     <t>Leave house?</t>
   </si>
   <si>
     <t>People in and out of house</t>
   </si>
   <si>
-    <t>Average nr of people that come in and out of house</t>
-  </si>
-  <si>
-    <t>Share of respondents reporting they left house day before</t>
-  </si>
-  <si>
-    <t>Share of respondents reporting they visit friends as usual</t>
-  </si>
-  <si>
-    <t>Share of respondents reporting they shake hands when greeting others</t>
-  </si>
-  <si>
     <t>Share of respondents who receive information about COVID-19 from the government</t>
   </si>
   <si>
@@ -239,30 +133,12 @@
     <t>Know COVID-19 symptoms</t>
   </si>
   <si>
-    <t>Government COVID-19 information</t>
-  </si>
-  <si>
     <t>Share of respondents that have access to a veronica bucket</t>
   </si>
   <si>
     <t>Share of respondents that have access to clean water to wash your hands</t>
   </si>
   <si>
-    <t>Average nr of times respondents wash hands per day</t>
-  </si>
-  <si>
-    <t>Share of respondents that are worried about COVID-19</t>
-  </si>
-  <si>
-    <t>Access to veronica bucket</t>
-  </si>
-  <si>
-    <t>Access to clean water</t>
-  </si>
-  <si>
-    <t>Frequency of handwashing</t>
-  </si>
-  <si>
     <t>Worried about COVID-19</t>
   </si>
   <si>
@@ -287,12 +163,6 @@
     <t>Clinic can help</t>
   </si>
   <si>
-    <t>Share of respondents that feel confident that clinic can help</t>
-  </si>
-  <si>
-    <t>Average clinic visits in past week</t>
-  </si>
-  <si>
     <t>Share of respondents that would visit clinic if showing symptoms of COVID-19</t>
   </si>
   <si>
@@ -305,33 +175,15 @@
     <t>Visit clinic if other illness</t>
   </si>
   <si>
-    <t>Times visited clinic past week</t>
-  </si>
-  <si>
     <t>Business expect lower prices</t>
   </si>
   <si>
-    <t>Business less likely to sell crops</t>
-  </si>
-  <si>
     <t>Relative to last year, less likely to sell</t>
   </si>
   <si>
     <t>Business closed</t>
   </si>
   <si>
-    <t>Share of respondents that say business is closed</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Share of respondents that are employed with a business or an organization</t>
-  </si>
-  <si>
-    <t>Work closed</t>
-  </si>
-  <si>
     <t>market_open</t>
   </si>
   <si>
@@ -374,21 +226,6 @@
     <t>no_eat</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>bus_price</t>
-  </si>
-  <si>
-    <t>bus_sell</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>empl_status</t>
-  </si>
-  <si>
     <t>farm_time</t>
   </si>
   <si>
@@ -419,24 +256,15 @@
     <t>fish_now</t>
   </si>
   <si>
-    <t>mag_now</t>
-  </si>
-  <si>
     <t>n_people</t>
   </si>
   <si>
     <t>leave</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
     <t>dist_market</t>
   </si>
   <si>
-    <t>aware</t>
-  </si>
-  <si>
     <t>veronica</t>
   </si>
   <si>
@@ -464,55 +292,199 @@
     <t>Community_level _measure</t>
   </si>
   <si>
-    <t>reason_unemp</t>
-  </si>
-  <si>
     <t>unemployed</t>
   </si>
   <si>
-    <t>What is the main reason as to why you are unemployed</t>
-  </si>
-  <si>
     <t>Cannot find work</t>
   </si>
   <si>
-    <t>ag_price</t>
-  </si>
-  <si>
-    <t>ag_sell</t>
-  </si>
-  <si>
-    <t>ls_price</t>
-  </si>
-  <si>
-    <t>ls_sell</t>
-  </si>
-  <si>
-    <t>trade_price</t>
-  </si>
-  <si>
-    <t>trade_sell</t>
-  </si>
-  <si>
-    <t>Business less likely to sell crops/animals</t>
-  </si>
-  <si>
-    <t>Business less likely to sell livestock goods</t>
-  </si>
-  <si>
-    <t>Business less likely to sell agricultural processed goods</t>
-  </si>
-  <si>
     <t>Share of employed respondents that report their work is closed</t>
   </si>
   <si>
     <t xml:space="preserve">Share of self-employed respondents that report their business is closed </t>
+  </si>
+  <si>
+    <t># market days</t>
+  </si>
+  <si>
+    <t>Price of palm oil pint (SLL)</t>
+  </si>
+  <si>
+    <t>Work is closed</t>
+  </si>
+  <si>
+    <t>mag_now_tr</t>
+  </si>
+  <si>
+    <t>own_bus_closed</t>
+  </si>
+  <si>
+    <t>empl_bus_closed</t>
+  </si>
+  <si>
+    <t>ag_goods_price</t>
+  </si>
+  <si>
+    <t>ag_goods_sell</t>
+  </si>
+  <si>
+    <t>ls_goods_price</t>
+  </si>
+  <si>
+    <t>ls_goods_sell</t>
+  </si>
+  <si>
+    <t>trade_goods_price</t>
+  </si>
+  <si>
+    <t>trade_goods_sell</t>
+  </si>
+  <si>
+    <t>Price rice cup (SLL)</t>
+  </si>
+  <si>
+    <t>Price casava tuber (SLL)</t>
+  </si>
+  <si>
+    <t>Price Maggie cube (SLL)</t>
+  </si>
+  <si>
+    <t>Days reduced food:  boys &lt; 10</t>
+  </si>
+  <si>
+    <t>Days reduced food:  girls &lt;  10</t>
+  </si>
+  <si>
+    <t>Access veronica bucket</t>
+  </si>
+  <si>
+    <t>Access clean water</t>
+  </si>
+  <si>
+    <t>Government COVID-19 info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business sell less proc. ag. </t>
+  </si>
+  <si>
+    <t>Business sell less livestock</t>
+  </si>
+  <si>
+    <t>Business sell less crops/animals</t>
+  </si>
+  <si>
+    <t>Days less adult female food</t>
+  </si>
+  <si>
+    <t>Days less adult male food</t>
+  </si>
+  <si>
+    <t>Price Bonga fish (SLL)</t>
+  </si>
+  <si>
+    <t>Days of past 7 market was open</t>
+  </si>
+  <si>
+    <t>Share of respondents reporting that rice is available in markets during past 7 days</t>
+  </si>
+  <si>
+    <t>Share of respondents reporting that cassava is available in markets during past 7 days</t>
+  </si>
+  <si>
+    <t>Share of respondents reporting that Bonga fish is available in markets during past 7 days</t>
+  </si>
+  <si>
+    <t>Share of respondents reporting that palm oil is available in markets during past 7 days</t>
+  </si>
+  <si>
+    <t>Share of respondents reporting that maggie is available in markets during past 7 days</t>
+  </si>
+  <si>
+    <t>Average price paid for a cup of rice (SLL, winsorized)</t>
+  </si>
+  <si>
+    <t>Average price paid for a casava tuber (SLL, winsorized)</t>
+  </si>
+  <si>
+    <t>Average price paid for Bonga fish (SLL, winsorized)</t>
+  </si>
+  <si>
+    <t>Average price paid for palm oil pint (SLL, winsorized)</t>
+  </si>
+  <si>
+    <t>Average price paid for Maggie cube (SLL, winsorized)</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household ate “less preferred foods”</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household reduced portions served per meal for boys under age 10</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household reduced portions/quantities served per meal for girls under age 10</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household ate fewer times per day than normal for this time of year</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household spent whole day without eating</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household asked for help from relatives or friends for food</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household reduced portions served per meal for adult males</t>
+  </si>
+  <si>
+    <t>Days of past 7 where household reduced portions served per meal for adult females</t>
+  </si>
+  <si>
+    <t>Days of past 7 respondents report they stayed at home</t>
+  </si>
+  <si>
+    <t>Shake hands?</t>
+  </si>
+  <si>
+    <t>Share of respondents reporting they shake hands when greeting others, in past 7 days</t>
+  </si>
+  <si>
+    <t>Average nr of people that come in and out of house, in past 7 days</t>
+  </si>
+  <si>
+    <t>Share of repsontents reporting they keep distance from others when at the market, in past 7 days</t>
+  </si>
+  <si>
+    <t>gov_info</t>
+  </si>
+  <si>
+    <t>Share of respondents that report they increased handwashing per day</t>
+  </si>
+  <si>
+    <t>Increase handwashing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days of past 7 visited clinic, for prenatal and antenatal care </t>
+  </si>
+  <si>
+    <t>Days visited clinic for babies</t>
+  </si>
+  <si>
+    <t>How worried is respondent about COVID-19, range: 1=not at all, 5=very worried</t>
+  </si>
+  <si>
+    <t>How confident respondents feel clinic can help, range: 1=not at all, 5=very confident</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Share of respondents that cant find work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,12 +550,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -594,8 +560,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -616,23 +584,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,24 +904,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="114" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24" style="3" customWidth="1"/>
-    <col min="4" max="5" width="26.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -959,30 +930,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -990,19 +964,22 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1010,8 +987,11 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1030,10 +1010,13 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1042,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1050,19 +1033,22 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1070,19 +1056,22 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1090,19 +1079,22 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1110,19 +1102,22 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -1130,19 +1125,22 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -1150,19 +1148,22 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -1170,19 +1171,22 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -1190,19 +1194,22 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -1210,19 +1217,22 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1230,19 +1240,22 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1250,19 +1263,22 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1270,19 +1286,22 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1290,19 +1309,22 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1310,19 +1332,22 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -1330,19 +1355,22 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1350,19 +1378,22 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -1370,19 +1401,22 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1390,19 +1424,22 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1410,19 +1447,22 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1430,19 +1470,22 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1450,19 +1493,22 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1470,19 +1516,22 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1490,19 +1539,22 @@
       <c r="F27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -1510,506 +1562,478 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="10">
-        <v>2</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="D29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="10">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="10">
-        <v>3</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="C33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="9"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,24 +2042,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/measures.xlsx
+++ b/docs/measures.xlsx
@@ -1154,7 +1154,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,6 +1238,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
       <c r="J2" s="10">
         <v>141</v>
       </c>
@@ -1273,6 +1276,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
       <c r="J3" s="10">
         <v>142</v>
       </c>
@@ -1308,6 +1314,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
       <c r="J4" s="10">
         <v>144</v>
       </c>
@@ -1343,6 +1352,9 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
       <c r="J5" s="10">
         <v>149</v>
       </c>
@@ -1378,6 +1390,9 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
       <c r="J6" s="10">
         <v>154</v>
       </c>
@@ -1413,6 +1428,9 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
       <c r="J7" s="10">
         <v>161</v>
       </c>
@@ -1448,6 +1466,9 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="10">
         <v>166</v>
       </c>
@@ -1483,6 +1504,7 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="10">
         <v>146</v>
       </c>
@@ -1521,6 +1543,7 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="10">
         <v>153</v>
       </c>
@@ -1559,6 +1582,7 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="10">
         <v>158</v>
       </c>
@@ -1597,6 +1621,7 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="10">
         <v>163</v>
       </c>
@@ -1635,6 +1660,7 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="10">
         <v>168</v>
       </c>
@@ -1673,6 +1699,9 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14" s="2">
+        <v>7</v>
+      </c>
       <c r="J14" s="10">
         <v>127</v>
       </c>
@@ -1711,6 +1740,9 @@
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="I15" s="2">
+        <v>7</v>
+      </c>
       <c r="J15" s="10">
         <v>128</v>
       </c>
@@ -1749,6 +1781,9 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
       <c r="J16" s="10">
         <v>129</v>
       </c>
@@ -1787,6 +1822,9 @@
       <c r="H17">
         <v>0</v>
       </c>
+      <c r="I17" s="2">
+        <v>7</v>
+      </c>
       <c r="J17" s="10">
         <v>130</v>
       </c>
@@ -1825,6 +1863,9 @@
       <c r="H18">
         <v>0</v>
       </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
       <c r="J18" s="10">
         <v>131</v>
       </c>
@@ -1863,6 +1904,9 @@
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="I19" s="2">
+        <v>7</v>
+      </c>
       <c r="J19" s="10">
         <v>132</v>
       </c>
@@ -1901,6 +1945,9 @@
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20" s="2">
+        <v>7</v>
+      </c>
       <c r="J20" s="10">
         <v>133</v>
       </c>
@@ -1939,6 +1986,9 @@
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21" s="2">
+        <v>7</v>
+      </c>
       <c r="J21" s="10">
         <v>134</v>
       </c>
@@ -1977,6 +2027,9 @@
       <c r="H22">
         <v>0</v>
       </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
       <c r="J22" s="10">
         <v>112</v>
       </c>
@@ -2015,6 +2068,9 @@
       <c r="H23">
         <v>0</v>
       </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
       <c r="J23" s="10">
         <v>111</v>
       </c>
@@ -2053,6 +2109,9 @@
       <c r="H24">
         <v>0</v>
       </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
       <c r="J24" s="10">
         <v>114</v>
       </c>
@@ -2091,6 +2150,9 @@
       <c r="H25">
         <v>0</v>
       </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
       <c r="J25" s="10">
         <v>115</v>
       </c>
@@ -2129,6 +2191,9 @@
       <c r="H26">
         <v>0</v>
       </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
       <c r="J26" s="10">
         <v>117</v>
       </c>
@@ -2167,6 +2232,9 @@
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
       <c r="J27" s="10">
         <v>119</v>
       </c>
@@ -2205,6 +2273,9 @@
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
       <c r="J28" s="10">
         <v>75</v>
       </c>
@@ -2243,6 +2314,9 @@
       <c r="H29">
         <v>0</v>
       </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
       <c r="J29" s="10">
         <v>89</v>
       </c>
@@ -2275,6 +2349,9 @@
       <c r="H30">
         <v>0</v>
       </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
       <c r="J30" s="11">
         <v>62</v>
       </c>
@@ -2307,6 +2384,9 @@
       <c r="H31">
         <v>0</v>
       </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
       <c r="J31" s="11">
         <v>63</v>
       </c>
@@ -2339,6 +2419,9 @@
       <c r="H32">
         <v>0</v>
       </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
       <c r="J32" s="11">
         <v>66</v>
       </c>
@@ -2371,6 +2454,9 @@
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
       <c r="J33" s="11">
         <v>67</v>
       </c>
@@ -2403,6 +2489,9 @@
       <c r="H34">
         <v>0</v>
       </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
       <c r="J34" s="11">
         <v>71</v>
       </c>
@@ -2435,6 +2524,9 @@
       <c r="H35">
         <v>0</v>
       </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
       <c r="J35" s="11">
         <v>72</v>
       </c>
@@ -2464,7 +2556,12 @@
       <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="H36"/>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
       <c r="J36" s="11" t="s">
         <v>218</v>
       </c>
@@ -2491,7 +2588,12 @@
       <c r="E37" s="2">
         <v>1</v>
       </c>
-      <c r="H37"/>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
       <c r="J37" s="11" t="s">
         <v>219</v>
       </c>
@@ -2527,6 +2629,7 @@
       <c r="H38">
         <v>0</v>
       </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="11">
         <v>174</v>
       </c>
@@ -2562,6 +2665,9 @@
       <c r="H39">
         <v>0</v>
       </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
       <c r="J39" s="11">
         <v>175</v>
       </c>
@@ -2598,6 +2704,9 @@
       <c r="H40">
         <v>0</v>
       </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
       <c r="J40" s="11">
         <v>184</v>
       </c>
@@ -2634,6 +2743,9 @@
       <c r="H41">
         <v>0</v>
       </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
       <c r="J41" s="11">
         <v>187</v>
       </c>
@@ -2670,6 +2782,9 @@
       <c r="H42">
         <v>0</v>
       </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
       <c r="J42" s="11">
         <v>201</v>
       </c>
@@ -2705,6 +2820,9 @@
       <c r="H43">
         <v>0</v>
       </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
       <c r="J43" s="11">
         <v>206</v>
       </c>
@@ -2743,6 +2861,9 @@
       <c r="H44">
         <v>0</v>
       </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
       <c r="J44" s="11">
         <v>214</v>
       </c>
@@ -2779,6 +2900,9 @@
       <c r="H45">
         <v>0</v>
       </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
       <c r="J45" s="11">
         <v>216</v>
       </c>
@@ -2815,6 +2939,9 @@
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
       <c r="J46" s="11">
         <v>218</v>
       </c>
@@ -2853,6 +2980,9 @@
       <c r="H47">
         <v>0</v>
       </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
       <c r="J47" s="11">
         <v>224</v>
       </c>
@@ -2891,6 +3021,9 @@
       <c r="H48">
         <v>0</v>
       </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
       <c r="J48" s="11">
         <v>226</v>
       </c>
@@ -2927,6 +3060,9 @@
       <c r="H49">
         <v>0</v>
       </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
       <c r="J49" s="11">
         <v>227</v>
       </c>
@@ -2963,6 +3099,9 @@
       <c r="H50">
         <v>0</v>
       </c>
+      <c r="I50" s="2">
+        <v>7</v>
+      </c>
       <c r="J50" s="11">
         <v>231</v>
       </c>
@@ -2999,6 +3138,9 @@
       <c r="H51">
         <v>0</v>
       </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
       <c r="J51" s="10">
         <v>232</v>
       </c>
@@ -3031,6 +3173,9 @@
       <c r="F52" s="8"/>
       <c r="H52" s="14">
         <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
       </c>
       <c r="J52" s="11">
         <v>52</v>
